--- a/lifeRestart_other/data/talents.xlsx
+++ b/lifeRestart_other/data/talents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F33440-1349-49EC-8228-3642668C2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13319264-5230-48FB-B601-FE38E524A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2222,10 +2222,10 @@
   <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/lifeRestart_other/data/talents.xlsx
+++ b/lifeRestart_other/data/talents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13319264-5230-48FB-B601-FE38E524A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F33440-1349-49EC-8228-3642668C2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2222,10 +2222,10 @@
   <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD45"/>
+      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/lifeRestart_other/data/talents.xlsx
+++ b/lifeRestart_other/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13319264-5230-48FB-B601-FE38E524A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77DA7A2-06C4-413C-8A46-63BA84CCF001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="509">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -522,530 +522,514 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>天龙人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拥有北京户口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独生子女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有兄弟姐妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡间微风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生在农村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生在城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城中高楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有美国国籍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美籍华人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家中老大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你最受父母宠爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水性良好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被淹死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先天免疫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会得艾滋病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外家境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外颜值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外智力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外快乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母美貌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红颜薄命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值+2，体质-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属蛇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被蛇咬死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人中龙凤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生双重性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳之外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生无性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩情证道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终生不恋爱结婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花连连</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12岁前父母都健在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安童年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物大师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物不会意外死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生残疾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早产儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十死无生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家运不顺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头着地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班中红人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和同学容易处好关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能轻松学会骑车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永远的神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电竞天才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能和同性交往</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹之下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁克</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌毒不沾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不生孩子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少数民族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高考+5分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱机会提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老司机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的家人不会心脏病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你退伍后会当官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不孕不育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你生不出孩子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白头偕老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱人至少能活到70岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100岁时才能开启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:SPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:MNY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:CHR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:STR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十而立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十不惑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30岁时家境+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知天命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50岁时智力、快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳顺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从心所欲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70岁时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老当益壮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时体质+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤发童颜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70岁时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学前启蒙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟来之财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90岁时家境+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形象管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成年礼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开光之胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖传药丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的小盒子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能不明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境为0时家境+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>乐天派</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天龙人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你拥有北京户口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>独生子女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你没有兄弟姐妹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乡间微风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你出生在农村</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你出生在城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城中高楼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有美国国籍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>美籍华人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家中老大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你最受父母宠爱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水性良好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被淹死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先天免疫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会得艾滋病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外家境</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外颜值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外体质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外智力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外快乐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超凡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母美貌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红颜薄命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值+2，体质-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属蛇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被蛇咬死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>半神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人中龙凤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生双重性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴阳之外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生无性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩情证道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>终生不恋爱结婚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花连连</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12岁前父母都健在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安童年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物大师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物不会意外死亡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生残疾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>早产儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十死无生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家运不顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头着地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胎教</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班中红人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和同学容易处好关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能轻松学会骑车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永远的神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电竞天才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能和同性交往</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩虹之下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁克</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赌毒不沾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不生孩子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少数民族</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高考+5分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋爱机会提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老司机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的家人不会心脏病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你退伍后会当官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不孕不育</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你生不出孩子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白头偕老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱人至少能活到70岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100岁时才能开启</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:SPR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:MNY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:CHR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:STR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三十而立</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四十不惑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30岁时家境+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>知天命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50岁时智力、快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁时快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从心所欲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70岁时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老当益壮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁时体质+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹤发童颜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70岁时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学前启蒙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟来之财</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>90岁时家境+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理财达人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30、40、50岁时家境+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成熟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、18岁时智力+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>形象管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16、24岁时颜值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成年礼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开光之胎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖传药丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的小盒子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能不明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境为0时家境+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐天派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>快乐为0时快乐+1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1110,15 +1094,6 @@
     <t>AGE?[90]</t>
   </si>
   <si>
-    <t>AGE?[30,40,50]</t>
-  </si>
-  <si>
-    <t>AGE?[12,18]</t>
-  </si>
-  <si>
-    <t>AGE?[16,24]</t>
-  </si>
-  <si>
     <t>(AGE?[20])&amp;(INT&gt;8)</t>
   </si>
   <si>
@@ -1312,10 +1287,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>体质&lt;-1时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>活死人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1388,433 +1359,627 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>抖M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境-2，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦痛侍僧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海的女儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-2，初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+2</t>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准扶贫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你20、30岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你10岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的40~50岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康饮食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不吃洋快餐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互斥天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想罢了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会上清华大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢没事找事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和家人不会发生车祸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢旅游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你比较自恋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺一门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可能听到一些绝密消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异界来客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三胎人生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你尽可能生三胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的60~90岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加奥赛的几率提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考公务员时一定能考上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>为人民服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入狱会减刑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现良好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运气稍微提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说做事很公平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万里挑一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你很攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有强迫症</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把握不住</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶着投胎，不要初始属性了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1084</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1085</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1086</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急了急了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不离不弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会离婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>身高不矮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>足量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易胖体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值更容易降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族主义者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄帝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒律</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左撇子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯使用左手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克苏鲁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还拥有其他人格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不连续存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少一个可选天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时候死亡率降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许有护佑作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>魔法棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道有什么用……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返老还童</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能会回到年轻的时候</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许时间会倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转世重修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡劫失败重生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[40]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁时家境+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[18]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24岁时颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[24]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;0时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死后可能灵魂离体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮回之外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境+10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AGE?[100])&amp;(TMS&gt;99)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百岁百世丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机蓝色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机紫色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机橙色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养爱好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:RDM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换成某稀有度的天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换成某天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacement:grade[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacement:talent[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外之喜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>觉醒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>抖M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境-2，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦痛侍僧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海的女儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-2，初始可用属性点+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性&gt;5时，所有属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性&gt;5时，所有属性+2</t>
-  </si>
-  <si>
-    <t>进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精准扶贫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你20、30岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你10岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[10]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[20,30]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过你的40~50岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康饮食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不吃洋快餐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>互斥天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exclusive[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不想罢了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会上清华大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢没事找事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你和家人不会发生车祸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢旅游</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你比较自恋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅行者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水仙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺一门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你可能听到一些绝密消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异界来客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三胎人生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你尽可能生三胎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过你的60~90岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加奥赛的几率提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宙斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考公务员时一定能考上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1119</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>1121</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>1124</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>为人民服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入狱会减刑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现良好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运气稍微提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小吉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天秤座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>据说做事很公平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万里挑一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你很攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有强迫症</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把握不住</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赶着投胎，不要初始属性了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1084</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1085</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1086</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>急了急了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不离不弃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会离婚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>身高不矮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>足量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易胖体质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值更容易降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种族主义者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄帝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒律</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左撇子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>习惯使用左手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>克苏鲁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你还拥有其他人格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不连续存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占位符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少一个可选天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时候死亡率降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许有护佑作用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1131</t>
-  </si>
-  <si>
-    <t>魔法棒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道有什么用……</t>
+    <t>蓝色转盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色转盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色转盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴间大会员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能开出好天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴间福袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某条件下所有属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮盘赌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/6几率变橙色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[60]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[20]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1141*0.2</t>
+  </si>
+  <si>
+    <t>1135*0.2</t>
+  </si>
+  <si>
+    <t>1114*0.2</t>
+  </si>
+  <si>
+    <t>1023*0.2</t>
+  </si>
+  <si>
+    <t>1048*0.2</t>
+  </si>
+  <si>
+    <t>1033*5</t>
+  </si>
+  <si>
+    <t>艰苦奋斗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2219,13 +2384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q133"/>
+  <dimension ref="A1:AK148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AG140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD45"/>
+      <selection pane="bottomRight" activeCell="AI146" sqref="AI146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2236,68 +2401,129 @@
     <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="13.5546875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="18.88671875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="25.44140625" style="1"/>
+    <col min="7" max="12" width="13.5546875" style="1" customWidth="1"/>
+    <col min="13" max="29" width="23.33203125" style="1" customWidth="1"/>
+    <col min="30" max="32" width="18.88671875" style="6" customWidth="1"/>
+    <col min="33" max="33" width="19.33203125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="21.88671875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="19.109375" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="25.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2308,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2317,40 +2543,100 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2358,13 +2644,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2372,13 +2658,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2391,20 +2677,17 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="AD5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2417,17 +2700,17 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2441,15 +2724,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>468</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2458,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2475,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2483,7 +2766,7 @@
         <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2492,7 +2775,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2500,7 +2783,7 @@
         <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2509,166 +2792,169 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD14" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD15" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>3</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -2689,15 +2975,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -2706,16 +2992,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
@@ -2723,15 +3009,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -2743,29 +3029,29 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -2786,140 +3072,140 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="M26" s="6" t="s">
+      <c r="AD26" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF26" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="N27" s="6" t="s">
+      <c r="AD27" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O27" s="1">
+      <c r="AG27" s="1">
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD28" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD29" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2928,15 +3214,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2957,15 +3243,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -2974,15 +3260,15 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -2991,15 +3277,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -3008,16 +3294,16 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
@@ -3025,150 +3311,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD43" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="E47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>405</v>
+      <c r="AD48" s="6" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3176,10 +3462,10 @@
         <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3190,10 +3476,10 @@
         <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -3204,13 +3490,13 @@
         <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3224,13 +3510,13 @@
         <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -3244,13 +3530,13 @@
         <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -3267,13 +3553,13 @@
         <v>64</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3287,13 +3573,13 @@
         <v>65</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3307,13 +3593,13 @@
         <v>66</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -3327,13 +3613,13 @@
         <v>67</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -3347,13 +3633,13 @@
         <v>68</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3367,13 +3653,13 @@
         <v>69</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -3387,13 +3673,13 @@
         <v>70</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3407,19 +3693,19 @@
         <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>249</v>
+        <v>462</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>285</v>
+        <v>461</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3427,19 +3713,19 @@
         <v>72</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>251</v>
+        <v>463</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>286</v>
+        <v>464</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3447,19 +3733,19 @@
         <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>253</v>
+        <v>465</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>287</v>
+        <v>466</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
       <c r="I63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3467,13 +3753,13 @@
         <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -3487,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -3504,10 +3790,10 @@
         <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -3521,10 +3807,10 @@
         <v>77</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -3535,13 +3821,13 @@
         <v>78</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -3555,13 +3841,13 @@
         <v>79</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3575,13 +3861,13 @@
         <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -3595,13 +3881,13 @@
         <v>81</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -3615,13 +3901,13 @@
         <v>82</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -3635,10 +3921,10 @@
         <v>83</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -3649,10 +3935,10 @@
         <v>84</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -3663,10 +3949,10 @@
         <v>85</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -3677,13 +3963,13 @@
         <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3697,13 +3983,13 @@
         <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -3717,13 +4003,13 @@
         <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -3737,13 +4023,13 @@
         <v>89</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3757,13 +4043,13 @@
         <v>90</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3772,18 +4058,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -3792,18 +4078,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3812,18 +4098,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -3841,18 +4127,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -3870,18 +4156,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -3899,15 +4185,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -3918,19 +4204,19 @@
       <c r="G86" s="1">
         <v>2</v>
       </c>
-      <c r="L86" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD86" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -3941,19 +4227,19 @@
       <c r="G87" s="1">
         <v>5</v>
       </c>
-      <c r="L87" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD87" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -3961,22 +4247,22 @@
       <c r="F88" s="1">
         <v>-10</v>
       </c>
-      <c r="L88" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD88" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -3985,18 +4271,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -4005,18 +4291,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -4025,18 +4311,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -4054,18 +4340,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>337</v>
+        <v>467</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4083,18 +4369,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -4112,15 +4398,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -4132,15 +4418,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -4154,13 +4440,13 @@
         <v>107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -4183,13 +4469,13 @@
         <v>108</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -4212,13 +4498,13 @@
         <v>109</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -4241,13 +4527,13 @@
         <v>110</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>356</v>
+        <v>508</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -4270,10 +4556,10 @@
         <v>111</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4290,10 +4576,10 @@
         <v>112</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4310,13 +4596,13 @@
         <v>113</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -4342,13 +4628,13 @@
         <v>114</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4374,13 +4660,13 @@
         <v>115</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -4391,13 +4677,13 @@
         <v>116</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>376</v>
+        <v>461</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
@@ -4408,13 +4694,13 @@
         <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>374</v>
+        <v>501</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4425,10 +4711,10 @@
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -4439,10 +4725,10 @@
         <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -4453,10 +4739,10 @@
         <v>120</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -4467,10 +4753,10 @@
         <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4481,199 +4767,199 @@
         <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
-      <c r="L115" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="M115" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="N115" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="O115" s="1">
+      <c r="AD115" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE115" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF115" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG115" s="1">
         <v>1027</v>
       </c>
-      <c r="P115" s="1">
+      <c r="AH115" s="1">
         <v>1041</v>
       </c>
-      <c r="Q115" s="1">
+      <c r="AI115" s="1">
         <v>1046</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="C124" s="1" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -4681,140 +4967,506 @@
       <c r="F124" s="1">
         <v>-20</v>
       </c>
-      <c r="L124" s="6" t="s">
+      <c r="AD124" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE124" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF124" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="125" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="M124" s="6" t="s">
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="N124" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B125" s="1" t="s">
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B126" s="1" t="s">
+      <c r="C130" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E126" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B129" s="1" t="s">
+      <c r="B133" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="E133" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>1132</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B130" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>1133</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E130" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B131" s="1" t="s">
+      <c r="C135" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>1134</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E131" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E132" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E133" s="1">
-        <v>2</v>
+      <c r="E136" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>1135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E137" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>1136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>1137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1">
+        <v>2</v>
+      </c>
+      <c r="H139" s="1">
+        <v>2</v>
+      </c>
+      <c r="I139" s="1">
+        <v>2</v>
+      </c>
+      <c r="J139" s="1">
+        <v>2</v>
+      </c>
+      <c r="K139" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>1138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>1139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="L141" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>1140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E142" s="1">
+        <v>2</v>
+      </c>
+      <c r="L142" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>1141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E143" s="1">
+        <v>3</v>
+      </c>
+      <c r="L143" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>1142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="M144" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD144" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE144" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF144" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG144" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AH144" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AI144" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AJ144" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AK144" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>1143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="M145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD145" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE145" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF145" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG145" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AH145" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AI145" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AJ145" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AK145" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>1144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E146" s="1">
+        <v>2</v>
+      </c>
+      <c r="M146" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>1145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="N147" s="6">
+        <v>1138</v>
+      </c>
+      <c r="O147" s="6">
+        <v>1133</v>
+      </c>
+      <c r="P147" s="6">
+        <v>1125</v>
+      </c>
+      <c r="Q147" s="6">
+        <v>1128</v>
+      </c>
+      <c r="R147" s="6">
+        <v>1129</v>
+      </c>
+      <c r="S147" s="6">
+        <v>1131</v>
+      </c>
+      <c r="T147" s="6">
+        <v>1111</v>
+      </c>
+      <c r="U147" s="6">
+        <v>1108</v>
+      </c>
+      <c r="V147" s="6">
+        <v>1071</v>
+      </c>
+      <c r="W147" s="6">
+        <v>1072</v>
+      </c>
+      <c r="X147" s="6">
+        <v>1044</v>
+      </c>
+      <c r="Y147" s="6">
+        <v>1039</v>
+      </c>
+      <c r="Z147" s="6">
+        <v>1040</v>
+      </c>
+      <c r="AA147" s="6">
+        <v>1033</v>
+      </c>
+      <c r="AB147" s="6">
+        <v>1031</v>
+      </c>
+      <c r="AC147" s="6">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/lifeRestart_other/data/talents.xlsx
+++ b/lifeRestart_other/data/talents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\zh-cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77DA7A2-06C4-413C-8A46-63BA84CCF001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1499080E-75D6-4741-BCAF-8409240F28AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="2080" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{CFC59F7C-A7E9-4DCF-A179-85D48981585F}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{CFC59F7C-A7E9-4DCF-A179-85D48981585F}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="589">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1402,10 +1402,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你20、30岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝色胶囊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1442,10 +1438,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>exclusive[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不想罢了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1714,10 +1706,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>黄帝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>戒律</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1980,6 +1968,335 @@
   </si>
   <si>
     <t>艰苦奋斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclude[]</t>
+  </si>
+  <si>
+    <t>exclusive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你很受</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还有别的名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆周率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色转盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机白色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续可导</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有其他人格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝妙的天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可惜这里写不下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成橙色天赋或死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时体质-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗言很有名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财天赋较高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30岁时颜值-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[30]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳间福袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更可能开出好天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1142</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1139</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1141</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1128</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1131</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1048</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1134</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1135</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1065</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴寓言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能发现世界的真相</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋综合判断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋不能多于5个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺贝尔奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二号橙色转盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有悲剧时，所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机抽一部剧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流芳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百世</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[2028,2029,2030,2031]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈姆雷特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李尔王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥赛罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲夏夜之梦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>威尼斯商人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二夜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆大欢喜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐-2</t>
+  </si>
+  <si>
+    <t>快乐-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐+2</t>
+  </si>
+  <si>
+    <t>快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐+114509</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永不言弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你永远不会放弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得过诺贝尔奖可复活一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一条命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死者苏生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性-2，加一条命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔的交易</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1033*6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1147*0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1148</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你20岁和30岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[20,30]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2384,33 +2701,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK148"/>
+  <dimension ref="A1:AL186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AG140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI146" sqref="AI146"/>
+      <selection pane="bottomRight" activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="39.65" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="1"/>
-    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" style="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="12" width="13.5546875" style="1" customWidth="1"/>
-    <col min="13" max="29" width="23.33203125" style="1" customWidth="1"/>
-    <col min="30" max="32" width="18.88671875" style="6" customWidth="1"/>
-    <col min="33" max="33" width="19.33203125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="21.88671875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="19.109375" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="25.44140625" style="1"/>
+    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="8" max="13" width="13.5" style="1" customWidth="1"/>
+    <col min="14" max="30" width="23.33203125" style="1" customWidth="1"/>
+    <col min="31" max="33" width="18.83203125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="21.83203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="19.08203125" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="25.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>219</v>
       </c>
@@ -2427,103 +2744,106 @@
         <v>270</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>369</v>
+        <v>485</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2540,103 +2860,106 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>486</v>
-      </c>
       <c r="P2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>368</v>
+        <v>483</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2644,13 +2967,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2658,13 +2981,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2677,17 +3000,17 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AE5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="AF5" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2700,17 +3023,17 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="AD6" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="AE6" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2724,12 +3047,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>158</v>
@@ -2737,11 +3060,11 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2754,11 +3077,11 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2771,11 +3094,11 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2788,11 +3111,11 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2805,20 +3128,20 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="6" t="s">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG12" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="AE12" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="AF12" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2832,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2845,17 +3168,17 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="AD14" s="6" t="s">
+      <c r="AE14" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG14" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="AE14" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2868,17 +3191,17 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="AD15" s="6" t="s">
+      <c r="AE15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG15" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="AE15" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2891,20 +3214,20 @@
       <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>386</v>
+      <c r="I16" s="1">
+        <v>1</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF16" s="6" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG16" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2918,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2932,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2946,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2959,9 +3282,6 @@
       <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
@@ -2974,8 +3294,11 @@
       <c r="K20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2988,11 +3311,11 @@
       <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3005,11 +3328,11 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3022,14 +3345,14 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="1">
-        <v>2</v>
-      </c>
       <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -3043,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3056,9 +3379,6 @@
       <c r="E25" s="1">
         <v>3</v>
       </c>
-      <c r="G25" s="1">
-        <v>2</v>
-      </c>
       <c r="H25" s="1">
         <v>2</v>
       </c>
@@ -3071,8 +3391,11 @@
       <c r="K25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3085,17 +3408,17 @@
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="AD26" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="AE26" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AF26" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG26" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3108,20 +3431,20 @@
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="AD27" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="AE27" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF27" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AG27" s="1">
+      <c r="AH27" s="1">
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -3134,11 +3457,11 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="AD28" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE28" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3151,11 +3474,11 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="AD29" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE29" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -3169,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3183,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -3197,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,11 +3533,11 @@
       <c r="E33" s="1">
         <v>0</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -3227,9 +3550,6 @@
       <c r="E34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="1">
-        <v>-1</v>
-      </c>
       <c r="H34" s="1">
         <v>-1</v>
       </c>
@@ -3242,8 +3562,11 @@
       <c r="K34" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -3256,11 +3579,11 @@
       <c r="E35" s="1">
         <v>0</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3273,11 +3596,11 @@
       <c r="E36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -3290,11 +3613,11 @@
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3307,11 +3630,11 @@
       <c r="E38" s="1">
         <v>0</v>
       </c>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3325,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3339,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -3353,12 +3676,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>202</v>
@@ -3367,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -3380,11 +3703,11 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="AD43" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE43" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3398,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -3406,13 +3729,13 @@
         <v>207</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -3426,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -3440,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3453,11 +3776,11 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="AD48" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE48" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -3471,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -3485,7 +3808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,11 +3824,11 @@
       <c r="E51" s="1">
         <v>0</v>
       </c>
-      <c r="H51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -3521,11 +3844,11 @@
       <c r="E52" s="1">
         <v>0</v>
       </c>
-      <c r="K52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -3541,14 +3864,14 @@
       <c r="E53" s="1">
         <v>0</v>
       </c>
-      <c r="G53" s="1">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -3564,11 +3887,11 @@
       <c r="E54" s="1">
         <v>0</v>
       </c>
-      <c r="G54" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -3584,11 +3907,11 @@
       <c r="E55" s="1">
         <v>0</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -3604,11 +3927,11 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-      <c r="J56" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -3624,11 +3947,11 @@
       <c r="E57" s="1">
         <v>0</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -3644,11 +3967,11 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-      <c r="K58" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -3664,11 +3987,11 @@
       <c r="E59" s="1">
         <v>1</v>
       </c>
-      <c r="I59" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -3684,11 +4007,11 @@
       <c r="E60" s="1">
         <v>0</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3696,19 +4019,19 @@
         <v>247</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -3716,19 +4039,19 @@
         <v>248</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
-      <c r="K62" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -3736,19 +4059,19 @@
         <v>249</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
-      <c r="I63" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -3764,11 +4087,11 @@
       <c r="E64" s="1">
         <v>0</v>
       </c>
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -3781,11 +4104,11 @@
       <c r="E65" s="1">
         <v>0</v>
       </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -3798,11 +4121,11 @@
       <c r="E66" s="1">
         <v>3</v>
       </c>
-      <c r="F66" s="1">
+      <c r="G66" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -3816,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -3832,11 +4155,11 @@
       <c r="E68" s="1">
         <v>0</v>
       </c>
-      <c r="H68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -3852,11 +4175,11 @@
       <c r="E69" s="1">
         <v>1</v>
       </c>
-      <c r="G69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -3872,11 +4195,11 @@
       <c r="E70" s="1">
         <v>0</v>
       </c>
-      <c r="J70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -3892,11 +4215,11 @@
       <c r="E71" s="1">
         <v>0</v>
       </c>
-      <c r="H71" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -3912,11 +4235,11 @@
       <c r="E72" s="1">
         <v>0</v>
       </c>
-      <c r="G72" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -3930,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -3944,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -3958,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -3974,11 +4297,11 @@
       <c r="E76" s="1">
         <v>1</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -3994,11 +4317,11 @@
       <c r="E77" s="1">
         <v>0</v>
       </c>
-      <c r="I77" s="1">
+      <c r="J77" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -4014,11 +4337,11 @@
       <c r="E78" s="1">
         <v>1</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -4034,11 +4357,11 @@
       <c r="E79" s="1">
         <v>1</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -4054,11 +4377,11 @@
       <c r="E80" s="1">
         <v>0</v>
       </c>
-      <c r="J80" s="1">
+      <c r="K80" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -4074,11 +4397,11 @@
       <c r="E81" s="1">
         <v>0</v>
       </c>
-      <c r="I81" s="1">
+      <c r="J81" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -4094,11 +4417,11 @@
       <c r="E82" s="1">
         <v>0</v>
       </c>
-      <c r="H82" s="1">
+      <c r="I82" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -4114,9 +4437,6 @@
       <c r="E83" s="1">
         <v>0</v>
       </c>
-      <c r="H83" s="1">
-        <v>1</v>
-      </c>
       <c r="I83" s="1">
         <v>1</v>
       </c>
@@ -4126,8 +4446,11 @@
       <c r="K83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -4143,9 +4466,6 @@
       <c r="E84" s="1">
         <v>1</v>
       </c>
-      <c r="H84" s="1">
-        <v>2</v>
-      </c>
       <c r="I84" s="1">
         <v>2</v>
       </c>
@@ -4155,8 +4475,11 @@
       <c r="K84" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4172,9 +4495,6 @@
       <c r="E85" s="1">
         <v>2</v>
       </c>
-      <c r="H85" s="1">
-        <v>3</v>
-      </c>
       <c r="I85" s="1">
         <v>3</v>
       </c>
@@ -4184,8 +4504,11 @@
       <c r="K85" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -4198,17 +4521,17 @@
       <c r="E86" s="1">
         <v>0</v>
       </c>
-      <c r="F86" s="1">
+      <c r="G86" s="1">
         <v>-2</v>
       </c>
-      <c r="G86" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD86" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE86" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -4221,17 +4544,17 @@
       <c r="E87" s="1">
         <v>1</v>
       </c>
-      <c r="F87" s="1">
+      <c r="G87" s="1">
         <v>-3</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <v>5</v>
       </c>
-      <c r="AD87" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE87" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -4244,14 +4567,14 @@
       <c r="E88" s="1">
         <v>0</v>
       </c>
-      <c r="F88" s="1">
+      <c r="G88" s="1">
         <v>-10</v>
       </c>
-      <c r="AD88" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE88" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4267,11 +4590,11 @@
       <c r="E89" s="1">
         <v>1</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4287,11 +4610,11 @@
       <c r="E90" s="1">
         <v>0</v>
       </c>
-      <c r="I90" s="1">
+      <c r="J90" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4307,11 +4630,11 @@
       <c r="E91" s="1">
         <v>0</v>
       </c>
-      <c r="J91" s="1">
+      <c r="K91" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4327,20 +4650,20 @@
       <c r="E92" s="1">
         <v>0</v>
       </c>
-      <c r="G92" s="1">
-        <v>1</v>
-      </c>
       <c r="H92" s="1">
         <v>1</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
       </c>
-      <c r="K92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J92" s="1">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4348,7 +4671,7 @@
         <v>330</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>328</v>
@@ -4356,20 +4679,20 @@
       <c r="E93" s="1">
         <v>1</v>
       </c>
-      <c r="G93" s="1">
-        <v>2</v>
-      </c>
       <c r="H93" s="1">
         <v>2</v>
       </c>
       <c r="I93" s="1">
         <v>2</v>
       </c>
-      <c r="K93" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J93" s="1">
+        <v>2</v>
+      </c>
+      <c r="L93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4385,20 +4708,20 @@
       <c r="E94" s="1">
         <v>0</v>
       </c>
-      <c r="G94" s="1">
-        <v>1</v>
-      </c>
       <c r="H94" s="1">
         <v>1</v>
       </c>
-      <c r="J94" s="1">
+      <c r="I94" s="1">
         <v>1</v>
       </c>
       <c r="K94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4411,14 +4734,14 @@
       <c r="E95" s="1">
         <v>0</v>
       </c>
-      <c r="I95" s="1">
+      <c r="J95" s="1">
         <v>-2</v>
       </c>
-      <c r="K95" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4431,11 +4754,11 @@
       <c r="E96" s="1">
         <v>0</v>
       </c>
-      <c r="I96" s="1">
+      <c r="J96" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4451,10 +4774,7 @@
       <c r="E97" s="1">
         <v>0</v>
       </c>
-      <c r="G97" s="1">
-        <v>1</v>
-      </c>
-      <c r="I97" s="1">
+      <c r="H97" s="1">
         <v>1</v>
       </c>
       <c r="J97" s="1">
@@ -4463,8 +4783,11 @@
       <c r="K97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -4480,9 +4803,6 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="H98" s="1">
-        <v>1</v>
-      </c>
       <c r="I98" s="1">
         <v>1</v>
       </c>
@@ -4492,8 +4812,11 @@
       <c r="K98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -4509,9 +4832,6 @@
       <c r="E99" s="1">
         <v>1</v>
       </c>
-      <c r="H99" s="1">
-        <v>2</v>
-      </c>
       <c r="I99" s="1">
         <v>2</v>
       </c>
@@ -4521,13 +4841,16 @@
       <c r="K99" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>346</v>
@@ -4538,10 +4861,7 @@
       <c r="E100" s="1">
         <v>1</v>
       </c>
-      <c r="G100" s="1">
-        <v>2</v>
-      </c>
-      <c r="I100" s="1">
+      <c r="H100" s="1">
         <v>2</v>
       </c>
       <c r="J100" s="1">
@@ -4550,8 +4870,11 @@
       <c r="K100" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -4564,14 +4887,14 @@
       <c r="E101" s="1">
         <v>0</v>
       </c>
-      <c r="G101" s="1">
-        <v>2</v>
-      </c>
       <c r="H101" s="1">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -4584,14 +4907,14 @@
       <c r="E102" s="1">
         <v>0</v>
       </c>
-      <c r="F102" s="1">
-        <v>1</v>
-      </c>
-      <c r="I102" s="1">
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -4607,9 +4930,6 @@
       <c r="E103" s="1">
         <v>0</v>
       </c>
-      <c r="G103" s="1">
-        <v>1</v>
-      </c>
       <c r="H103" s="1">
         <v>1</v>
       </c>
@@ -4622,8 +4942,11 @@
       <c r="K103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -4639,9 +4962,6 @@
       <c r="E104" s="1">
         <v>1</v>
       </c>
-      <c r="G104" s="1">
-        <v>2</v>
-      </c>
       <c r="H104" s="1">
         <v>2</v>
       </c>
@@ -4654,547 +4974,547 @@
       <c r="K104" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L104" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E105" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>359</v>
+        <v>587</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="E108" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE115" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E115" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD115" s="6" t="s">
+      <c r="AF115" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AG115" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="AE115" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF115" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="AG115" s="1">
+      <c r="AH115" s="1">
         <v>1027</v>
       </c>
-      <c r="AH115" s="1">
+      <c r="AI115" s="1">
         <v>1041</v>
       </c>
-      <c r="AI115" s="1">
+      <c r="AJ115" s="1">
         <v>1046</v>
       </c>
     </row>
-    <row r="116" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="B123" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="B124" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1">
+        <v>-20</v>
+      </c>
+      <c r="AE124" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF124" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="AG124" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E124" s="1">
-        <v>1</v>
-      </c>
-      <c r="F124" s="1">
-        <v>-20</v>
-      </c>
-      <c r="AD124" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE124" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="AF124" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="125" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="B126" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B127" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="B131" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E126" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E130" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="E132" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="B133" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>1135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E137" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>1136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E138" s="1">
         <v>0</v>
       </c>
-      <c r="K138" s="1">
+      <c r="L138" s="1">
         <v>-5</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>1137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
       </c>
-      <c r="G139" s="1">
-        <v>2</v>
-      </c>
       <c r="H139" s="1">
         <v>2</v>
       </c>
@@ -5207,266 +5527,1301 @@
       <c r="K139" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L139" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>1138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E140" s="1">
         <v>0</v>
       </c>
-      <c r="L140" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>1139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
       </c>
-      <c r="L141" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M141" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>1140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E142" s="1">
         <v>2</v>
       </c>
-      <c r="L142" s="1">
+      <c r="M142" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>1141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E143" s="1">
         <v>3</v>
       </c>
-      <c r="L143" s="1">
+      <c r="M143" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>1142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E144" s="1">
         <v>0</v>
       </c>
-      <c r="M144" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD144" s="6" t="s">
-        <v>389</v>
+      <c r="N144" s="1">
+        <v>1</v>
       </c>
       <c r="AE144" s="6" t="s">
         <v>387</v>
       </c>
       <c r="AF144" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG144" s="1">
+        <v>385</v>
+      </c>
+      <c r="AG144" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH144" s="1">
         <v>1110</v>
       </c>
-      <c r="AH144" s="1">
+      <c r="AI144" s="1">
         <v>1003</v>
       </c>
-      <c r="AI144" s="1">
+      <c r="AJ144" s="1">
         <v>1004</v>
       </c>
-      <c r="AJ144" s="1">
+      <c r="AK144" s="1">
         <v>1124</v>
       </c>
-      <c r="AK144" s="1">
+      <c r="AL144" s="1">
         <v>1125</v>
       </c>
     </row>
-    <row r="145" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>1143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
       </c>
-      <c r="M145" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD145" s="6" t="s">
-        <v>389</v>
+      <c r="N145" s="1">
+        <v>2</v>
       </c>
       <c r="AE145" s="6" t="s">
         <v>387</v>
       </c>
       <c r="AF145" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG145" s="1">
+        <v>385</v>
+      </c>
+      <c r="AG145" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH145" s="1">
         <v>1110</v>
       </c>
-      <c r="AH145" s="1">
+      <c r="AI145" s="1">
         <v>1003</v>
       </c>
-      <c r="AI145" s="1">
+      <c r="AJ145" s="1">
         <v>1004</v>
       </c>
-      <c r="AJ145" s="1">
+      <c r="AK145" s="1">
         <v>1124</v>
       </c>
-      <c r="AK145" s="1">
+      <c r="AL145" s="1">
         <v>1125</v>
       </c>
     </row>
-    <row r="146" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>1144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E146" s="1">
         <v>2</v>
       </c>
-      <c r="M146" s="1">
+      <c r="N146" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>1145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
       </c>
-      <c r="N147" s="6">
+      <c r="O147" s="6">
         <v>1138</v>
       </c>
-      <c r="O147" s="6">
+      <c r="P147" s="6">
         <v>1133</v>
       </c>
-      <c r="P147" s="6">
+      <c r="Q147" s="6">
         <v>1125</v>
       </c>
-      <c r="Q147" s="6">
+      <c r="R147" s="6">
         <v>1128</v>
       </c>
-      <c r="R147" s="6">
+      <c r="S147" s="6">
         <v>1129</v>
       </c>
-      <c r="S147" s="6">
+      <c r="T147" s="6">
         <v>1131</v>
       </c>
-      <c r="T147" s="6">
+      <c r="U147" s="6">
         <v>1111</v>
       </c>
-      <c r="U147" s="6">
+      <c r="V147" s="6">
         <v>1108</v>
       </c>
-      <c r="V147" s="6">
+      <c r="W147" s="6">
         <v>1071</v>
       </c>
-      <c r="W147" s="6">
+      <c r="X147" s="6">
         <v>1072</v>
       </c>
-      <c r="X147" s="6">
+      <c r="Y147" s="6">
         <v>1044</v>
       </c>
-      <c r="Y147" s="6">
+      <c r="Z147" s="6">
         <v>1039</v>
       </c>
-      <c r="Z147" s="6">
+      <c r="AA147" s="6">
         <v>1040</v>
       </c>
-      <c r="AA147" s="6">
+      <c r="AB147" s="6">
         <v>1033</v>
       </c>
-      <c r="AB147" s="6">
+      <c r="AC147" s="6">
         <v>1031</v>
       </c>
-      <c r="AC147" s="6">
+      <c r="AD147" s="6">
         <v>1002</v>
       </c>
     </row>
-    <row r="148" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>1146</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="T148" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="U148" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>1147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E149" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>1148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E150" s="1">
+        <v>2</v>
+      </c>
+      <c r="H150" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I150" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J150" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K150" s="1">
+        <v>-2</v>
+      </c>
+      <c r="L150" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E151" s="1">
+        <v>2</v>
+      </c>
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+      <c r="K151" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E152" s="1">
+        <v>2</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
+      <c r="J152" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3.1415926000000001</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+      <c r="N156" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE156" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF156" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG156" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH156" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AI156" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AJ156" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AK156" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AL156" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="157" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
+      <c r="F157" s="1">
+        <v>1</v>
+      </c>
+      <c r="H157" s="1">
+        <v>1</v>
+      </c>
+      <c r="I157" s="1">
+        <v>1</v>
+      </c>
+      <c r="J157" s="1">
+        <v>1</v>
+      </c>
+      <c r="L157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1</v>
+      </c>
+      <c r="H158" s="1">
+        <v>1</v>
+      </c>
+      <c r="I158" s="1">
+        <v>1</v>
+      </c>
+      <c r="J158" s="1">
+        <v>1</v>
+      </c>
+      <c r="K158" s="1">
+        <v>1</v>
+      </c>
+      <c r="L158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1</v>
+      </c>
+      <c r="N159" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE159" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF159" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG159" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH159" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AI159" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AJ159" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AK159" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AL159" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1</v>
+      </c>
+      <c r="N160" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE160" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF160" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG160" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH160" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AI160" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AJ160" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AK160" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AL160" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1</v>
+      </c>
+      <c r="N161" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE161" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF161" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG161" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH161" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AI161" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AJ161" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AK161" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AL161" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="162" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1">
+        <v>1</v>
+      </c>
+      <c r="N162" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE162" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF162" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG162" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH162" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AI162" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AJ162" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AK162" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AL162" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0</v>
+      </c>
+      <c r="F163" s="1">
+        <v>1</v>
+      </c>
+      <c r="N163" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE163" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF163" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG163" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH163" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AI163" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AJ163" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AK163" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AL163" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="164" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E165" s="1">
+        <v>3</v>
+      </c>
+      <c r="F165" s="1">
+        <v>1</v>
+      </c>
+      <c r="G165" s="1">
+        <v>1</v>
+      </c>
+      <c r="H165" s="1">
+        <v>5</v>
+      </c>
+      <c r="I165" s="1">
+        <v>1</v>
+      </c>
+      <c r="J165" s="1">
+        <v>1</v>
+      </c>
+      <c r="K165" s="1">
+        <v>2</v>
+      </c>
+      <c r="L165" s="1">
+        <v>1</v>
+      </c>
+      <c r="M165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E166" s="1">
+        <v>2</v>
+      </c>
+      <c r="F166" s="1">
+        <v>1</v>
+      </c>
+      <c r="O166" s="1">
+        <v>1141</v>
+      </c>
+      <c r="P166" s="1">
+        <v>1135</v>
+      </c>
+      <c r="Q166" s="1">
+        <v>1114</v>
+      </c>
+      <c r="R166" s="1">
+        <v>1023</v>
+      </c>
+      <c r="S166" s="1">
+        <v>1048</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="U166" s="1">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="167" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="K168" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E148" s="1">
-        <v>1</v>
-      </c>
-      <c r="N148" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="O148" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="P148" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q148" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R148" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="S148" s="1" t="s">
-        <v>507</v>
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
+      <c r="F169" s="1">
+        <v>1</v>
+      </c>
+      <c r="I169" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E170" s="1">
+        <v>0</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1</v>
+      </c>
+      <c r="J170" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E171" s="1">
+        <v>2</v>
+      </c>
+      <c r="F171" s="1">
+        <v>1</v>
+      </c>
+      <c r="O171" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="P171" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q171" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="R171" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="S171" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="T171" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="U171" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="V171" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="W171" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X171" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y171" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z171" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="AA171" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB171" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="AC171" s="6"/>
+      <c r="AD171" s="6"/>
+    </row>
+    <row r="172" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E174" s="1">
+        <v>2</v>
+      </c>
+      <c r="F174" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E175" s="1">
+        <v>2</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1</v>
+      </c>
+      <c r="N175" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1</v>
+      </c>
+      <c r="H176" s="1">
+        <v>1</v>
+      </c>
+      <c r="I176" s="1">
+        <v>1</v>
+      </c>
+      <c r="J176" s="1">
+        <v>1</v>
+      </c>
+      <c r="K176" s="1">
+        <v>1</v>
+      </c>
+      <c r="L176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1">
+        <v>1</v>
+      </c>
+      <c r="O177" s="1">
+        <v>2028</v>
+      </c>
+      <c r="P177" s="1">
+        <v>2029</v>
+      </c>
+      <c r="Q177" s="1">
+        <v>2030</v>
+      </c>
+      <c r="R177" s="1">
+        <v>2031</v>
+      </c>
+      <c r="S177" s="1">
+        <v>2032</v>
+      </c>
+      <c r="T177" s="1">
+        <v>2033</v>
+      </c>
+      <c r="U177" s="1">
+        <v>2034</v>
+      </c>
+      <c r="V177" s="1">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1">
+        <v>1</v>
+      </c>
+      <c r="H178" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
+      <c r="F179" s="1">
+        <v>1</v>
+      </c>
+      <c r="H179" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+      <c r="H180" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1</v>
+      </c>
+      <c r="F181" s="1">
+        <v>1</v>
+      </c>
+      <c r="H181" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F182" s="1">
+        <v>1</v>
+      </c>
+      <c r="H182" s="1">
+        <v>114509</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F183" s="1">
+        <v>1</v>
+      </c>
+      <c r="H183" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1</v>
+      </c>
+      <c r="H184" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
+      <c r="F185" s="1">
+        <v>1</v>
+      </c>
+      <c r="H185" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E186" s="1">
+        <v>2</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
